--- a/data/pca/factorExposure/factorExposure_2010-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-28.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01470407609171104</v>
+        <v>-0.01636371588901032</v>
       </c>
       <c r="C2">
-        <v>-0.0004262969377053894</v>
+        <v>0.0008304514782025899</v>
       </c>
       <c r="D2">
-        <v>-0.009155475731703694</v>
+        <v>0.007348730044501824</v>
       </c>
       <c r="E2">
-        <v>-0.02133453967348278</v>
+        <v>-0.002310735224854976</v>
       </c>
       <c r="F2">
-        <v>0.04646155543679031</v>
+        <v>-0.01167383131230775</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.115776245369611</v>
+        <v>-0.09634663470479617</v>
       </c>
       <c r="C4">
-        <v>-0.0795526961934013</v>
+        <v>0.01869170077893616</v>
       </c>
       <c r="D4">
-        <v>-0.006559396094564946</v>
+        <v>0.07374612072583503</v>
       </c>
       <c r="E4">
-        <v>-0.1594399679459936</v>
+        <v>0.02690999915459372</v>
       </c>
       <c r="F4">
-        <v>0.01874029196448171</v>
+        <v>0.04120271769220383</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1272794515738769</v>
+        <v>-0.1493737636361427</v>
       </c>
       <c r="C6">
-        <v>-0.04919115201049597</v>
+        <v>0.02409554990803916</v>
       </c>
       <c r="D6">
-        <v>0.006345906066062672</v>
+        <v>-0.0167160610234912</v>
       </c>
       <c r="E6">
-        <v>-0.0346979744468782</v>
+        <v>0.01147427272550841</v>
       </c>
       <c r="F6">
-        <v>-0.04579384588324837</v>
+        <v>0.03994084645514448</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07021288186103844</v>
+        <v>-0.06296582814175131</v>
       </c>
       <c r="C7">
-        <v>-0.08732538872279899</v>
+        <v>0.001153988509598194</v>
       </c>
       <c r="D7">
-        <v>-0.006575817200598002</v>
+        <v>0.05006308884701426</v>
       </c>
       <c r="E7">
-        <v>-0.02144972271534295</v>
+        <v>0.01664130424030956</v>
       </c>
       <c r="F7">
-        <v>0.01246526472738153</v>
+        <v>0.05896004418702116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04008515689692846</v>
+        <v>-0.06090922375333219</v>
       </c>
       <c r="C8">
-        <v>-0.007994533927085743</v>
+        <v>-0.01253850255806351</v>
       </c>
       <c r="D8">
-        <v>-0.006981405771079947</v>
+        <v>0.02566794867099052</v>
       </c>
       <c r="E8">
-        <v>-0.1142708216568693</v>
+        <v>0.008768846071748729</v>
       </c>
       <c r="F8">
-        <v>0.03408239561923618</v>
+        <v>-0.02215047345962982</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09032056611507377</v>
+        <v>-0.07459051086308192</v>
       </c>
       <c r="C9">
-        <v>-0.06114299204218392</v>
+        <v>0.01554345053460692</v>
       </c>
       <c r="D9">
-        <v>0.01258232594455842</v>
+        <v>0.07127501612106103</v>
       </c>
       <c r="E9">
-        <v>-0.1368988481169644</v>
+        <v>0.0195058840254136</v>
       </c>
       <c r="F9">
-        <v>-0.01093778831654746</v>
+        <v>0.06233298765126116</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1266239971101533</v>
+        <v>-0.09032105969613687</v>
       </c>
       <c r="C10">
-        <v>0.1848009936853067</v>
+        <v>0.01221029505084785</v>
       </c>
       <c r="D10">
-        <v>-0.01579129672606752</v>
+        <v>-0.1725503371276508</v>
       </c>
       <c r="E10">
-        <v>0.05993120212372822</v>
+        <v>-0.03467654747628079</v>
       </c>
       <c r="F10">
-        <v>-0.03223951921134183</v>
+        <v>-0.05087517140371322</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06821358861644955</v>
+        <v>-0.08970386208376163</v>
       </c>
       <c r="C11">
-        <v>-0.06038622119638728</v>
+        <v>0.01475023804852824</v>
       </c>
       <c r="D11">
-        <v>0.04240124751060795</v>
+        <v>0.101550571138957</v>
       </c>
       <c r="E11">
-        <v>-0.1075781922543144</v>
+        <v>0.04005867304554728</v>
       </c>
       <c r="F11">
-        <v>-0.009551721875865695</v>
+        <v>0.02896841317917689</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07397247609403153</v>
+        <v>-0.09533799101635206</v>
       </c>
       <c r="C12">
-        <v>-0.06865632856568639</v>
+        <v>0.01242837236584252</v>
       </c>
       <c r="D12">
-        <v>0.04948152418154107</v>
+        <v>0.1057906750092155</v>
       </c>
       <c r="E12">
-        <v>-0.1264026654732265</v>
+        <v>0.03778223658431926</v>
       </c>
       <c r="F12">
-        <v>-0.01869544866186143</v>
+        <v>0.03274290059097348</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04870256939269441</v>
+        <v>-0.04489619191670997</v>
       </c>
       <c r="C13">
-        <v>-0.04157779841086989</v>
+        <v>0.004817002081647912</v>
       </c>
       <c r="D13">
-        <v>-0.02370909033934476</v>
+        <v>0.03213810624180106</v>
       </c>
       <c r="E13">
-        <v>-0.06457237350235112</v>
+        <v>-0.01572560733469333</v>
       </c>
       <c r="F13">
-        <v>0.0172463769229008</v>
+        <v>0.02089049074226721</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04583641704917619</v>
+        <v>-0.02262933967243345</v>
       </c>
       <c r="C14">
-        <v>-0.03365224816802768</v>
+        <v>0.01526411270973068</v>
       </c>
       <c r="D14">
-        <v>0.01100247748120022</v>
+        <v>0.02663681424368369</v>
       </c>
       <c r="E14">
-        <v>-0.06004127044726395</v>
+        <v>0.01540093508613659</v>
       </c>
       <c r="F14">
-        <v>-0.01012125043592277</v>
+        <v>0.02642156592628795</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03075857831294523</v>
+        <v>-0.03388364821591669</v>
       </c>
       <c r="C15">
-        <v>-0.01787446057047509</v>
+        <v>0.00652132494968509</v>
       </c>
       <c r="D15">
-        <v>-0.06396016356119182</v>
+        <v>0.03419428847194546</v>
       </c>
       <c r="E15">
-        <v>-0.01055510990729274</v>
+        <v>0.004815461645289575</v>
       </c>
       <c r="F15">
-        <v>0.01605250835508552</v>
+        <v>0.03358163074770992</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07925592199943686</v>
+        <v>-0.07764315019115135</v>
       </c>
       <c r="C16">
-        <v>-0.07782479320077428</v>
+        <v>0.006584842391727521</v>
       </c>
       <c r="D16">
-        <v>0.03663697655078748</v>
+        <v>0.1042588610880497</v>
       </c>
       <c r="E16">
-        <v>-0.1070949259371254</v>
+        <v>0.05593372403963325</v>
       </c>
       <c r="F16">
-        <v>-0.02335471730543452</v>
+        <v>0.03670001465390962</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01584857942515952</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004192957973417266</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.025572788655185</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01029990768341378</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.03150523639493913</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04311094943826341</v>
+        <v>-0.06344705213581385</v>
       </c>
       <c r="C20">
-        <v>-0.02581058633355653</v>
+        <v>0.004124675361463387</v>
       </c>
       <c r="D20">
-        <v>-0.02941081092062618</v>
+        <v>0.05862444914894576</v>
       </c>
       <c r="E20">
-        <v>-0.06172296488718485</v>
+        <v>0.04798220035069124</v>
       </c>
       <c r="F20">
-        <v>-0.01304336596796994</v>
+        <v>0.03303249087749036</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03258857396005607</v>
+        <v>-0.03933199664819279</v>
       </c>
       <c r="C21">
-        <v>-0.01668942402619209</v>
+        <v>0.008514246461393428</v>
       </c>
       <c r="D21">
-        <v>0.009460095505578971</v>
+        <v>0.03059339163782967</v>
       </c>
       <c r="E21">
-        <v>-0.05046170195832577</v>
+        <v>-0.01667458762159133</v>
       </c>
       <c r="F21">
-        <v>-7.061587518094155e-06</v>
+        <v>-0.01642966728976453</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05095661556603581</v>
+        <v>-0.04297275160525003</v>
       </c>
       <c r="C22">
-        <v>-0.01500122261730052</v>
+        <v>0.0005410163461071737</v>
       </c>
       <c r="D22">
-        <v>-0.6561986845904405</v>
+        <v>-0.001564656916146349</v>
       </c>
       <c r="E22">
-        <v>0.03153228779185357</v>
+        <v>0.03479710591389454</v>
       </c>
       <c r="F22">
-        <v>-0.06660720631011831</v>
+        <v>-0.02871091783341938</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05154476866098406</v>
+        <v>-0.04301054494886762</v>
       </c>
       <c r="C23">
-        <v>-0.01611143050762403</v>
+        <v>0.0005641576751299919</v>
       </c>
       <c r="D23">
-        <v>-0.6583880251350532</v>
+        <v>-0.001384499760962268</v>
       </c>
       <c r="E23">
-        <v>0.02598202890088426</v>
+        <v>0.03516196107860144</v>
       </c>
       <c r="F23">
-        <v>-0.06584304659346864</v>
+        <v>-0.02812785890228467</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07705140605567126</v>
+        <v>-0.08294961367094598</v>
       </c>
       <c r="C24">
-        <v>-0.07226380200852622</v>
+        <v>0.006385712150782055</v>
       </c>
       <c r="D24">
-        <v>0.02956078809991293</v>
+        <v>0.1074149275324979</v>
       </c>
       <c r="E24">
-        <v>-0.1099279670508048</v>
+        <v>0.04390518322654536</v>
       </c>
       <c r="F24">
-        <v>-0.02021460100538474</v>
+        <v>0.02946215237271647</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07626038944242367</v>
+        <v>-0.08750109141824304</v>
       </c>
       <c r="C25">
-        <v>-0.05421482234921253</v>
+        <v>0.008683298471365656</v>
       </c>
       <c r="D25">
-        <v>0.04865794234680641</v>
+        <v>0.09235926507216952</v>
       </c>
       <c r="E25">
-        <v>-0.1145755613506999</v>
+        <v>0.02539507575315339</v>
       </c>
       <c r="F25">
-        <v>-0.02025823037431871</v>
+        <v>0.03888140744384316</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03753041365411312</v>
+        <v>-0.05761377961286179</v>
       </c>
       <c r="C26">
-        <v>-0.02166174727766213</v>
+        <v>0.01597475885698474</v>
       </c>
       <c r="D26">
-        <v>-0.01622039629065814</v>
+        <v>0.02411959157817573</v>
       </c>
       <c r="E26">
-        <v>-0.07359270895226529</v>
+        <v>0.02292035702597704</v>
       </c>
       <c r="F26">
-        <v>-0.06451325374416053</v>
+        <v>0.002992000554007757</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1458303431874589</v>
+        <v>-0.1357207686844212</v>
       </c>
       <c r="C28">
-        <v>0.2772245207889397</v>
+        <v>0.009507422255531351</v>
       </c>
       <c r="D28">
-        <v>0.006389185067992124</v>
+        <v>-0.2802206358428456</v>
       </c>
       <c r="E28">
-        <v>-0.02078167391009136</v>
+        <v>-0.06892568965313246</v>
       </c>
       <c r="F28">
-        <v>0.01041211692855933</v>
+        <v>0.04762763159703674</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04273768598670727</v>
+        <v>-0.02786769246846095</v>
       </c>
       <c r="C29">
-        <v>-0.03198186673041674</v>
+        <v>0.009536006424292375</v>
       </c>
       <c r="D29">
-        <v>0.01606925888815194</v>
+        <v>0.02516058346051303</v>
       </c>
       <c r="E29">
-        <v>-0.05352481785662025</v>
+        <v>0.007882554099772671</v>
       </c>
       <c r="F29">
-        <v>-0.01344942645553373</v>
+        <v>-0.006466264615314796</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08684517665796948</v>
+        <v>-0.06775452977542369</v>
       </c>
       <c r="C30">
-        <v>-0.05763510746820028</v>
+        <v>0.009168809254492758</v>
       </c>
       <c r="D30">
-        <v>0.01409920769036869</v>
+        <v>0.066525119505425</v>
       </c>
       <c r="E30">
-        <v>-0.2282180952948548</v>
+        <v>0.01936461597705603</v>
       </c>
       <c r="F30">
-        <v>-0.1298310021645298</v>
+        <v>0.1250357370317813</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02816042058284184</v>
+        <v>-0.04914036868469576</v>
       </c>
       <c r="C31">
-        <v>-0.05431793204272747</v>
+        <v>0.01541599449860518</v>
       </c>
       <c r="D31">
-        <v>-0.004243400442897772</v>
+        <v>0.02803060172888088</v>
       </c>
       <c r="E31">
-        <v>-0.04378601396422666</v>
+        <v>0.02588755406725573</v>
       </c>
       <c r="F31">
-        <v>0.0001082968400512967</v>
+        <v>-0.00267422276688447</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06130336131851589</v>
+        <v>-0.04881257726451107</v>
       </c>
       <c r="C32">
-        <v>-0.005087992846244843</v>
+        <v>0.001264178509840812</v>
       </c>
       <c r="D32">
-        <v>0.03768200112690497</v>
+        <v>0.02066483744411647</v>
       </c>
       <c r="E32">
-        <v>-0.09275038027819113</v>
+        <v>0.02281246938595323</v>
       </c>
       <c r="F32">
-        <v>0.0162889090636793</v>
+        <v>0.005331294449833858</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0917684621201271</v>
+        <v>-0.09328046144678979</v>
       </c>
       <c r="C33">
-        <v>-0.06839179267279467</v>
+        <v>0.01182506109260862</v>
       </c>
       <c r="D33">
-        <v>0.02116988716053127</v>
+        <v>0.08287485833956229</v>
       </c>
       <c r="E33">
-        <v>-0.07563069648957643</v>
+        <v>0.04350616121514732</v>
       </c>
       <c r="F33">
-        <v>-0.07690098859585519</v>
+        <v>0.04456655269735381</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06801424908060615</v>
+        <v>-0.07024740172220348</v>
       </c>
       <c r="C34">
-        <v>-0.05767669339402009</v>
+        <v>0.01403454526902063</v>
       </c>
       <c r="D34">
-        <v>0.04807343615130543</v>
+        <v>0.08691539470002428</v>
       </c>
       <c r="E34">
-        <v>-0.09209242615844401</v>
+        <v>0.02553602368556266</v>
       </c>
       <c r="F34">
-        <v>-0.02389292288675218</v>
+        <v>0.05470961792730093</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02342333571036993</v>
+        <v>-0.02434768227945271</v>
       </c>
       <c r="C35">
-        <v>-0.02617136455796968</v>
+        <v>0.002422006577094438</v>
       </c>
       <c r="D35">
-        <v>0.01063924542996782</v>
+        <v>0.01011526081415086</v>
       </c>
       <c r="E35">
-        <v>-0.0157820061680587</v>
+        <v>0.0125345998692879</v>
       </c>
       <c r="F35">
-        <v>-0.02635748846705738</v>
+        <v>0.01338398978025617</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.03048051275140475</v>
+        <v>-0.02687309697792647</v>
       </c>
       <c r="C36">
-        <v>-0.0201686039845203</v>
+        <v>0.007371334754248376</v>
       </c>
       <c r="D36">
-        <v>-0.01433463910897249</v>
+        <v>0.03821680348933127</v>
       </c>
       <c r="E36">
-        <v>-0.07477828941672307</v>
+        <v>0.01613393454701985</v>
       </c>
       <c r="F36">
-        <v>-0.02513642802412829</v>
+        <v>0.01343768123147581</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02883921335527919</v>
+        <v>-0.003365629624547151</v>
       </c>
       <c r="C38">
-        <v>-0.05849148289856868</v>
+        <v>0.0006602357712219015</v>
       </c>
       <c r="D38">
-        <v>-0.01760236529770085</v>
+        <v>0.0040303284566698</v>
       </c>
       <c r="E38">
-        <v>0.1160981398071534</v>
+        <v>0.004848169038721469</v>
       </c>
       <c r="F38">
-        <v>-0.03770095916396111</v>
+        <v>-0.003808686183439841</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09318802050945724</v>
+        <v>-0.1133373033555623</v>
       </c>
       <c r="C39">
-        <v>-0.07681261991116105</v>
+        <v>0.02066097739740819</v>
       </c>
       <c r="D39">
-        <v>0.1133239164429973</v>
+        <v>0.140432546347931</v>
       </c>
       <c r="E39">
-        <v>-0.1199695993904351</v>
+        <v>0.04890006938990729</v>
       </c>
       <c r="F39">
-        <v>-0.06547860783853794</v>
+        <v>0.04129676706710227</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02744878286486001</v>
+        <v>-0.0374880961595989</v>
       </c>
       <c r="C40">
-        <v>-0.06837038404129778</v>
+        <v>0.007969868597435035</v>
       </c>
       <c r="D40">
-        <v>-0.01987003059116242</v>
+        <v>0.02443637659918963</v>
       </c>
       <c r="E40">
-        <v>-0.0888442236443109</v>
+        <v>0.00278401743599596</v>
       </c>
       <c r="F40">
-        <v>0.01206656474832177</v>
+        <v>-0.01514334901011317</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03125412403375299</v>
+        <v>-0.02634374105780055</v>
       </c>
       <c r="C41">
-        <v>-0.0291168989159968</v>
+        <v>0.006773381889108927</v>
       </c>
       <c r="D41">
-        <v>0.02823092069949214</v>
+        <v>0.01177614339572606</v>
       </c>
       <c r="E41">
-        <v>0.004806059131156492</v>
+        <v>0.01149393053917388</v>
       </c>
       <c r="F41">
-        <v>-0.008935939210534004</v>
+        <v>-0.01318093786937719</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04969841460646322</v>
+        <v>-0.04368446323126818</v>
       </c>
       <c r="C43">
-        <v>-0.05419813032759797</v>
+        <v>0.007438756013231895</v>
       </c>
       <c r="D43">
-        <v>-0.005899963926222737</v>
+        <v>0.0205335795857716</v>
       </c>
       <c r="E43">
-        <v>-0.01242901788006322</v>
+        <v>0.02552379795347792</v>
       </c>
       <c r="F43">
-        <v>-0.009107436312006946</v>
+        <v>-0.01131760686387441</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09863331854681349</v>
+        <v>-0.07576803953616934</v>
       </c>
       <c r="C44">
-        <v>-0.07904135847361281</v>
+        <v>0.02513330136073193</v>
       </c>
       <c r="D44">
-        <v>-0.05958836767632794</v>
+        <v>0.08784108210171535</v>
       </c>
       <c r="E44">
-        <v>-0.1642336742115285</v>
+        <v>0.0624093897720096</v>
       </c>
       <c r="F44">
-        <v>-0.003715872004169758</v>
+        <v>0.1859692370666925</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04782748441732124</v>
+        <v>-0.02504040234419892</v>
       </c>
       <c r="C46">
-        <v>-0.04474449459063815</v>
+        <v>0.004083910986034025</v>
       </c>
       <c r="D46">
-        <v>-0.03857376819356643</v>
+        <v>0.009344362147749214</v>
       </c>
       <c r="E46">
-        <v>-0.02285000836655221</v>
+        <v>0.02128681112843895</v>
       </c>
       <c r="F46">
-        <v>-0.01696732149993587</v>
+        <v>-0.00491253415778991</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04959791102497735</v>
+        <v>-0.05318130475444235</v>
       </c>
       <c r="C47">
-        <v>-0.04678081107507786</v>
+        <v>0.003373949986842868</v>
       </c>
       <c r="D47">
-        <v>-0.006130412033494697</v>
+        <v>0.01469007190406136</v>
       </c>
       <c r="E47">
-        <v>-0.01871925047836982</v>
+        <v>0.02271118469246224</v>
       </c>
       <c r="F47">
-        <v>-0.03513662704960233</v>
+        <v>-0.0471280147367941</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04623348885881588</v>
+        <v>-0.04853930567175193</v>
       </c>
       <c r="C48">
-        <v>-0.01582388824125247</v>
+        <v>0.003625761219394202</v>
       </c>
       <c r="D48">
-        <v>0.007721175628709096</v>
+        <v>0.04106420959615526</v>
       </c>
       <c r="E48">
-        <v>-0.08718700012203445</v>
+        <v>-0.009461522138730681</v>
       </c>
       <c r="F48">
-        <v>-0.02385882651577599</v>
+        <v>0.0196245731874092</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2358308352382009</v>
+        <v>-0.2084045802532245</v>
       </c>
       <c r="C49">
-        <v>-0.06326515248057639</v>
+        <v>0.01735407110367336</v>
       </c>
       <c r="D49">
-        <v>0.04045512874137833</v>
+        <v>-0.007091801657017613</v>
       </c>
       <c r="E49">
-        <v>0.3098920841181967</v>
+        <v>0.0463000200246328</v>
       </c>
       <c r="F49">
-        <v>0.03015205577652261</v>
+        <v>0.03330006878876109</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03646513657684589</v>
+        <v>-0.04901977940586751</v>
       </c>
       <c r="C50">
-        <v>-0.0478338959933918</v>
+        <v>0.01171684263239989</v>
       </c>
       <c r="D50">
-        <v>0.01081763736635659</v>
+        <v>0.02750396945711233</v>
       </c>
       <c r="E50">
-        <v>-0.05629824914219204</v>
+        <v>0.02930858861162358</v>
       </c>
       <c r="F50">
-        <v>-0.04864219194190356</v>
+        <v>0.005375271468957977</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03396563892222935</v>
+        <v>-0.003697652009739808</v>
       </c>
       <c r="C51">
-        <v>-0.004718862635070225</v>
+        <v>0.0008551191875179443</v>
       </c>
       <c r="D51">
-        <v>0.001339998405214086</v>
+        <v>-0.001412616178497306</v>
       </c>
       <c r="E51">
-        <v>0.05619575028015998</v>
+        <v>0.001806874335372026</v>
       </c>
       <c r="F51">
-        <v>0.05286182036757869</v>
+        <v>0.004032752732035658</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.005902819588189236</v>
+        <v>-0.1400136833178864</v>
       </c>
       <c r="C52">
-        <v>-0.003798068801539883</v>
+        <v>0.01236183858664604</v>
       </c>
       <c r="D52">
-        <v>0.01832836715555658</v>
+        <v>0.0543904744427041</v>
       </c>
       <c r="E52">
-        <v>-0.01626075642636477</v>
+        <v>0.01319905427146599</v>
       </c>
       <c r="F52">
-        <v>0.02672622657098221</v>
+        <v>0.02850991012098197</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1440792823861426</v>
+        <v>-0.1715365685043903</v>
       </c>
       <c r="C53">
-        <v>-0.06080113498596465</v>
+        <v>0.01497887316614392</v>
       </c>
       <c r="D53">
-        <v>-0.008170666258839915</v>
+        <v>0.0230594834141522</v>
       </c>
       <c r="E53">
-        <v>0.09135502740259586</v>
+        <v>0.03845831662488206</v>
       </c>
       <c r="F53">
-        <v>-0.02168801403358842</v>
+        <v>0.05526299033092691</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06044153502768448</v>
+        <v>-0.02209523103483845</v>
       </c>
       <c r="C54">
-        <v>-0.02902681576833006</v>
+        <v>0.01310785548545796</v>
       </c>
       <c r="D54">
-        <v>-0.007363369292113042</v>
+        <v>0.02762034046563694</v>
       </c>
       <c r="E54">
-        <v>-0.1416916028449875</v>
+        <v>0.01389393101471102</v>
       </c>
       <c r="F54">
-        <v>-0.01571934227429525</v>
+        <v>0.002574167539291835</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08366967119603798</v>
+        <v>-0.1137027116517366</v>
       </c>
       <c r="C55">
-        <v>-0.05381291216565404</v>
+        <v>0.01430619525118814</v>
       </c>
       <c r="D55">
-        <v>0.03312880287319467</v>
+        <v>0.02002293243712508</v>
       </c>
       <c r="E55">
-        <v>0.01674145446938638</v>
+        <v>0.02919171704629624</v>
       </c>
       <c r="F55">
-        <v>-0.0004836408063058461</v>
+        <v>0.0469084572688649</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1318132869423182</v>
+        <v>-0.1759011999867304</v>
       </c>
       <c r="C56">
-        <v>-0.09168326765034671</v>
+        <v>0.01214671815152111</v>
       </c>
       <c r="D56">
-        <v>0.01184910273176068</v>
+        <v>0.02322086454013503</v>
       </c>
       <c r="E56">
-        <v>0.03953279944103215</v>
+        <v>0.04252742077150578</v>
       </c>
       <c r="F56">
-        <v>-0.02525843577928291</v>
+        <v>0.02323231109855803</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03494692822717882</v>
+        <v>-0.04726673045952155</v>
       </c>
       <c r="C58">
-        <v>-0.03091198851131883</v>
+        <v>0.004163689710522994</v>
       </c>
       <c r="D58">
-        <v>-0.03312712469990966</v>
+        <v>0.05730763553704525</v>
       </c>
       <c r="E58">
-        <v>-0.03621502211339692</v>
+        <v>0.01208659918139817</v>
       </c>
       <c r="F58">
-        <v>-0.03347611535354104</v>
+        <v>-0.0427483566390122</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2148028914535303</v>
+        <v>-0.1691236250901039</v>
       </c>
       <c r="C59">
-        <v>0.2436100722439723</v>
+        <v>0.01127692981562478</v>
       </c>
       <c r="D59">
-        <v>0.04867530243378379</v>
+        <v>-0.2327087731305044</v>
       </c>
       <c r="E59">
-        <v>0.008994731584108276</v>
+        <v>-0.04568134768927615</v>
       </c>
       <c r="F59">
-        <v>0.073222192685981</v>
+        <v>-0.02961927067266256</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2329492821106696</v>
+        <v>-0.2396513471901694</v>
       </c>
       <c r="C60">
-        <v>-0.1331107164651364</v>
+        <v>-0.0043667985704038</v>
       </c>
       <c r="D60">
-        <v>0.06671136419457355</v>
+        <v>0.05472911134465266</v>
       </c>
       <c r="E60">
-        <v>0.1396276324126261</v>
+        <v>0.01372195201515636</v>
       </c>
       <c r="F60">
-        <v>0.02291097835905054</v>
+        <v>-0.05130695960239361</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09020708170273699</v>
+        <v>-0.08793966182737963</v>
       </c>
       <c r="C61">
-        <v>-0.06484114395480524</v>
+        <v>0.01583095457985723</v>
       </c>
       <c r="D61">
-        <v>0.06614013931206278</v>
+        <v>0.09887021792590214</v>
       </c>
       <c r="E61">
-        <v>-0.124139668786282</v>
+        <v>0.03190233487421767</v>
       </c>
       <c r="F61">
-        <v>-0.0223381748438643</v>
+        <v>0.02649097194382677</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1346215682094032</v>
+        <v>-0.1682306187340704</v>
       </c>
       <c r="C62">
-        <v>-0.08307956662382769</v>
+        <v>0.01636629828550846</v>
       </c>
       <c r="D62">
-        <v>0.007452930828354585</v>
+        <v>0.0199194437503224</v>
       </c>
       <c r="E62">
-        <v>0.04783678935403084</v>
+        <v>0.03689228911232326</v>
       </c>
       <c r="F62">
-        <v>-0.07400929897194865</v>
+        <v>0.01147207431724906</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04369075593541866</v>
+        <v>-0.04358912552849497</v>
       </c>
       <c r="C63">
-        <v>-0.01798910726342938</v>
+        <v>0.004810816208964988</v>
       </c>
       <c r="D63">
-        <v>0.006046125494378431</v>
+        <v>0.04285217129443389</v>
       </c>
       <c r="E63">
-        <v>-0.06261224785047079</v>
+        <v>0.01253927894389268</v>
       </c>
       <c r="F63">
-        <v>-0.04285258731941917</v>
+        <v>0.01339006521549456</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09965058588894886</v>
+        <v>-0.1122657859016109</v>
       </c>
       <c r="C64">
-        <v>-0.05807401418884363</v>
+        <v>0.01237015187225995</v>
       </c>
       <c r="D64">
-        <v>0.005326167748514884</v>
+        <v>0.03781957284354171</v>
       </c>
       <c r="E64">
-        <v>-0.04725744825900436</v>
+        <v>0.01918925199246485</v>
       </c>
       <c r="F64">
-        <v>0.002470711551427899</v>
+        <v>0.01570865416359254</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.119062568651836</v>
+        <v>-0.1401858246722385</v>
       </c>
       <c r="C65">
-        <v>-0.02670928394984117</v>
+        <v>0.03017999901209897</v>
       </c>
       <c r="D65">
-        <v>0.02450383046493208</v>
+        <v>-0.04116206063417726</v>
       </c>
       <c r="E65">
-        <v>-0.05841685629327169</v>
+        <v>0.005298316683338667</v>
       </c>
       <c r="F65">
-        <v>-0.06968217927055867</v>
+        <v>0.0417250255674427</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1073622057629585</v>
+        <v>-0.1361391374253929</v>
       </c>
       <c r="C66">
-        <v>-0.1125999593412046</v>
+        <v>0.0183002001106466</v>
       </c>
       <c r="D66">
-        <v>0.1136002807899969</v>
+        <v>0.1266281450741468</v>
       </c>
       <c r="E66">
-        <v>-0.09884154801958453</v>
+        <v>0.05923573204858182</v>
       </c>
       <c r="F66">
-        <v>-0.09588992336150175</v>
+        <v>0.04488968294383845</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08619311307752317</v>
+        <v>-0.0661631866621874</v>
       </c>
       <c r="C67">
-        <v>-0.08024172535001048</v>
+        <v>0.004496303707239448</v>
       </c>
       <c r="D67">
-        <v>-0.02260723163448737</v>
+        <v>0.05744593092924888</v>
       </c>
       <c r="E67">
-        <v>0.09180573032971846</v>
+        <v>0.0204394411420949</v>
       </c>
       <c r="F67">
-        <v>-0.00311550988166652</v>
+        <v>-0.04309448299920782</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1282238166587259</v>
+        <v>-0.1097873783218645</v>
       </c>
       <c r="C68">
-        <v>0.274254231392878</v>
+        <v>0.02040988545589196</v>
       </c>
       <c r="D68">
-        <v>0.02133127423385996</v>
+        <v>-0.277849969722744</v>
       </c>
       <c r="E68">
-        <v>-0.02895664582965315</v>
+        <v>-0.08587882775094793</v>
       </c>
       <c r="F68">
-        <v>-0.02113122794459689</v>
+        <v>0.05097549064948005</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04231637101612441</v>
+        <v>-0.0407999146625962</v>
       </c>
       <c r="C69">
-        <v>-0.02149717483673184</v>
+        <v>0.001058453871726371</v>
       </c>
       <c r="D69">
-        <v>-0.01258041857626021</v>
+        <v>0.009971352637199679</v>
       </c>
       <c r="E69">
-        <v>0.01489822889551634</v>
+        <v>0.02566377586149494</v>
       </c>
       <c r="F69">
-        <v>-0.05724609023203963</v>
+        <v>-0.01724418253991198</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06595375822671323</v>
+        <v>-0.0660662774628258</v>
       </c>
       <c r="C70">
-        <v>-0.05860824449248453</v>
+        <v>-0.02662168426066399</v>
       </c>
       <c r="D70">
-        <v>0.05967378459427158</v>
+        <v>0.0008136802973848818</v>
       </c>
       <c r="E70">
-        <v>0.02675463293845318</v>
+        <v>-0.04608185525930248</v>
       </c>
       <c r="F70">
-        <v>-0.01944454296490494</v>
+        <v>-0.3472567934488909</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1442481983223615</v>
+        <v>-0.1281540705314223</v>
       </c>
       <c r="C71">
-        <v>0.2775534267315957</v>
+        <v>0.02364885524059702</v>
       </c>
       <c r="D71">
-        <v>0.01244098494774052</v>
+        <v>-0.2923814455726655</v>
       </c>
       <c r="E71">
-        <v>-0.04237975870682233</v>
+        <v>-0.09440028365767469</v>
       </c>
       <c r="F71">
-        <v>-0.01640276457799927</v>
+        <v>0.05308727913819655</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1263226618815027</v>
+        <v>-0.138237633060249</v>
       </c>
       <c r="C72">
-        <v>-0.03602969459635879</v>
+        <v>0.02397765218262471</v>
       </c>
       <c r="D72">
-        <v>0.01475151417024708</v>
+        <v>0.01265406581165287</v>
       </c>
       <c r="E72">
-        <v>-0.01615011351229531</v>
+        <v>0.04392257017809921</v>
       </c>
       <c r="F72">
-        <v>-0.09182240770509691</v>
+        <v>0.02587261191205525</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2100745764351303</v>
+        <v>-0.2104211696026392</v>
       </c>
       <c r="C73">
-        <v>-0.130869804331023</v>
+        <v>0.01186832764641182</v>
       </c>
       <c r="D73">
-        <v>0.1239980544070947</v>
+        <v>0.02705707884607511</v>
       </c>
       <c r="E73">
-        <v>0.4636319866164988</v>
+        <v>0.07470453739445093</v>
       </c>
       <c r="F73">
-        <v>0.1415651139960461</v>
+        <v>0.02193455326503682</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08359591684201631</v>
+        <v>-0.09361024530812147</v>
       </c>
       <c r="C74">
-        <v>-0.0873230979240997</v>
+        <v>0.01160724268916691</v>
       </c>
       <c r="D74">
-        <v>0.002281030686606287</v>
+        <v>0.03107797921968455</v>
       </c>
       <c r="E74">
-        <v>0.05049088162930477</v>
+        <v>0.05232568003199042</v>
       </c>
       <c r="F74">
-        <v>-0.04200156336614238</v>
+        <v>0.03953612345085236</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08549185576118308</v>
+        <v>-0.1295396629498465</v>
       </c>
       <c r="C75">
-        <v>-0.06330948609137316</v>
+        <v>0.02573962757582971</v>
       </c>
       <c r="D75">
-        <v>0.003562769245889072</v>
+        <v>0.04082096899490502</v>
       </c>
       <c r="E75">
-        <v>0.01581271680934493</v>
+        <v>0.05832527191123216</v>
       </c>
       <c r="F75">
-        <v>-0.02072743900771032</v>
+        <v>0.004278198608942505</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.08488363814128379</v>
+        <v>-0.009639585369097167</v>
       </c>
       <c r="C76">
-        <v>-0.08402054422185434</v>
+        <v>0.002157063096593384</v>
       </c>
       <c r="D76">
-        <v>-0.001259026634464964</v>
+        <v>0.00464158803509962</v>
       </c>
       <c r="E76">
-        <v>0.05982074526019299</v>
+        <v>0.01016019472104969</v>
       </c>
       <c r="F76">
-        <v>0.02037318661725723</v>
+        <v>0.0033801684059492</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07082994069376025</v>
+        <v>-0.08197860219392965</v>
       </c>
       <c r="C77">
-        <v>-0.008103345227962286</v>
+        <v>0.01285594135902949</v>
       </c>
       <c r="D77">
-        <v>0.04546704226118998</v>
+        <v>0.09452020607547021</v>
       </c>
       <c r="E77">
-        <v>-0.2862202535979623</v>
+        <v>0.03120410537337053</v>
       </c>
       <c r="F77">
-        <v>0.1048574802217612</v>
+        <v>0.04412992376452459</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.2060695686882217</v>
+        <v>-0.1121449788814098</v>
       </c>
       <c r="C78">
-        <v>-0.1279403282556286</v>
+        <v>0.04506174429223186</v>
       </c>
       <c r="D78">
-        <v>-0.1658272574186458</v>
+        <v>0.1160057259267241</v>
       </c>
       <c r="E78">
-        <v>-0.2641295818327723</v>
+        <v>0.08947992485327759</v>
       </c>
       <c r="F78">
-        <v>0.6054570455203684</v>
+        <v>0.08536009060333327</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1281967989295718</v>
+        <v>-0.1619535278178802</v>
       </c>
       <c r="C79">
-        <v>-0.08345572681317129</v>
+        <v>0.01973712492923881</v>
       </c>
       <c r="D79">
-        <v>-0.007499678612976244</v>
+        <v>0.02607237249054719</v>
       </c>
       <c r="E79">
-        <v>0.01307022590049659</v>
+        <v>0.04821262764993589</v>
       </c>
       <c r="F79">
-        <v>-0.0468559411575548</v>
+        <v>0.003326413804666464</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0500722024177254</v>
+        <v>-0.08163962965347496</v>
       </c>
       <c r="C80">
-        <v>-0.03697114470095234</v>
+        <v>-0.0009537913775361728</v>
       </c>
       <c r="D80">
-        <v>0.06923219783985715</v>
+        <v>0.04972961429848625</v>
       </c>
       <c r="E80">
-        <v>0.00347615499291016</v>
+        <v>0.02478102275779839</v>
       </c>
       <c r="F80">
-        <v>0.0002634103871585506</v>
+        <v>-0.01108328706017693</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1213960595147973</v>
+        <v>-0.1217404628703763</v>
       </c>
       <c r="C81">
-        <v>-0.05508121961530394</v>
+        <v>0.02947287335526725</v>
       </c>
       <c r="D81">
-        <v>-0.01020237231704181</v>
+        <v>0.03151164920537292</v>
       </c>
       <c r="E81">
-        <v>-0.03153677470470376</v>
+        <v>0.05917996018109652</v>
       </c>
       <c r="F81">
-        <v>-0.09149242190704587</v>
+        <v>-0.00736002778775347</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1169349465138694</v>
+        <v>-0.1618457034036431</v>
       </c>
       <c r="C82">
-        <v>-0.05938660867739829</v>
+        <v>0.02018686777685505</v>
       </c>
       <c r="D82">
-        <v>0.001340982618708149</v>
+        <v>0.02436017786529043</v>
       </c>
       <c r="E82">
-        <v>0.03541019471966696</v>
+        <v>0.03502532385768712</v>
       </c>
       <c r="F82">
-        <v>-0.07638183024307096</v>
+        <v>0.04878431803251993</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0784934579465535</v>
+        <v>-0.06806707518557537</v>
       </c>
       <c r="C83">
-        <v>-0.07357112405696459</v>
+        <v>0.004899554886507365</v>
       </c>
       <c r="D83">
-        <v>0.0003076405023960155</v>
+        <v>0.04243019485310364</v>
       </c>
       <c r="E83">
-        <v>0.01233223516374427</v>
+        <v>0.001018617277146519</v>
       </c>
       <c r="F83">
-        <v>-0.05797897206750913</v>
+        <v>-0.0296382043105526</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.03392088723873553</v>
+        <v>-0.06045806405268676</v>
       </c>
       <c r="C84">
-        <v>0.05533353269999717</v>
+        <v>0.01224643969494076</v>
       </c>
       <c r="D84">
-        <v>0.03366318164676831</v>
+        <v>0.05746339972973011</v>
       </c>
       <c r="E84">
-        <v>-0.121993833604751</v>
+        <v>-0.003123818387375266</v>
       </c>
       <c r="F84">
-        <v>0.113637852413718</v>
+        <v>0.01332840533404967</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1192653185602898</v>
+        <v>-0.1371135172338831</v>
       </c>
       <c r="C85">
-        <v>-0.05878591471047104</v>
+        <v>0.0251157308783585</v>
       </c>
       <c r="D85">
-        <v>0.009863923383911864</v>
+        <v>0.02408190751250541</v>
       </c>
       <c r="E85">
-        <v>0.03060832380195707</v>
+        <v>0.04064813031617644</v>
       </c>
       <c r="F85">
-        <v>-0.0526582749578764</v>
+        <v>0.03824010418425889</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09088814017359186</v>
+        <v>-0.09991881884296272</v>
       </c>
       <c r="C86">
-        <v>-0.0188780710635789</v>
+        <v>-0.0064666183960568</v>
       </c>
       <c r="D86">
-        <v>-0.01645080785151096</v>
+        <v>0.009423181787337413</v>
       </c>
       <c r="E86">
-        <v>-0.04184361523802457</v>
+        <v>0.1294273030035153</v>
       </c>
       <c r="F86">
-        <v>0.1393950213035294</v>
+        <v>-0.8224429030165257</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1214249702121523</v>
+        <v>-0.1028074749377068</v>
       </c>
       <c r="C87">
-        <v>-0.06444506021728298</v>
+        <v>0.02627051956306384</v>
       </c>
       <c r="D87">
-        <v>-0.01155516292797347</v>
+        <v>0.06681826027395033</v>
       </c>
       <c r="E87">
-        <v>-0.06935935095983892</v>
+        <v>-0.0535686799218691</v>
       </c>
       <c r="F87">
-        <v>-0.006009282905676852</v>
+        <v>0.09261693694337861</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06069605382474929</v>
+        <v>-0.06110234051121792</v>
       </c>
       <c r="C88">
-        <v>-0.06711509036104335</v>
+        <v>0.003953263879080509</v>
       </c>
       <c r="D88">
-        <v>0.03719158618931569</v>
+        <v>0.05695226682258972</v>
       </c>
       <c r="E88">
-        <v>-0.01251185428129994</v>
+        <v>0.02360981704361226</v>
       </c>
       <c r="F88">
-        <v>-0.01865602915026754</v>
+        <v>0.007469651728663119</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2380425256675888</v>
+        <v>-0.1314615035452537</v>
       </c>
       <c r="C89">
-        <v>0.3693713725027077</v>
+        <v>0.003326081084321493</v>
       </c>
       <c r="D89">
-        <v>-0.03783320157626254</v>
+        <v>-0.2844534516094082</v>
       </c>
       <c r="E89">
-        <v>0.01729286389112616</v>
+        <v>-0.09359297557665167</v>
       </c>
       <c r="F89">
-        <v>0.03867161788651015</v>
+        <v>0.03651055134390641</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1552107368838881</v>
+        <v>-0.1395520787036263</v>
       </c>
       <c r="C90">
-        <v>0.2559058106435789</v>
+        <v>0.01996244473673184</v>
       </c>
       <c r="D90">
-        <v>0.01716692496115055</v>
+        <v>-0.2799552503537714</v>
       </c>
       <c r="E90">
-        <v>-0.006899696422209495</v>
+        <v>-0.1072494788115943</v>
       </c>
       <c r="F90">
-        <v>0.01043740297661325</v>
+        <v>0.04089996262106601</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07003246748245626</v>
+        <v>-0.1158775772963845</v>
       </c>
       <c r="C91">
-        <v>-0.06037691691254987</v>
+        <v>0.01561793574730693</v>
       </c>
       <c r="D91">
-        <v>-0.01208733887433276</v>
+        <v>0.006824629214822041</v>
       </c>
       <c r="E91">
-        <v>0.001046237899663687</v>
+        <v>0.05871779833279821</v>
       </c>
       <c r="F91">
-        <v>0.005724231217649918</v>
+        <v>-0.0331237508010542</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1735711619008554</v>
+        <v>-0.1429814141595648</v>
       </c>
       <c r="C92">
-        <v>0.2959057546522933</v>
+        <v>0.01056553445438799</v>
       </c>
       <c r="D92">
-        <v>-0.01919197075853823</v>
+        <v>-0.3149000942239079</v>
       </c>
       <c r="E92">
-        <v>-0.03217579131401972</v>
+        <v>-0.1023886708525963</v>
       </c>
       <c r="F92">
-        <v>0.03742665544375762</v>
+        <v>0.03278678980375235</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1720640891366605</v>
+        <v>-0.1440231990115617</v>
       </c>
       <c r="C93">
-        <v>0.3038446728871663</v>
+        <v>0.01580909301487597</v>
       </c>
       <c r="D93">
-        <v>0.04771848047156108</v>
+        <v>-0.2806408361351073</v>
       </c>
       <c r="E93">
-        <v>-0.009699338273282551</v>
+        <v>-0.07161426636345099</v>
       </c>
       <c r="F93">
-        <v>-0.04021496462994535</v>
+        <v>0.03110691837893407</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1143782123071152</v>
+        <v>-0.1333606105460134</v>
       </c>
       <c r="C94">
-        <v>-0.08202886280627197</v>
+        <v>0.02351704967242153</v>
       </c>
       <c r="D94">
-        <v>-0.008783717884743684</v>
+        <v>0.05331270869239035</v>
       </c>
       <c r="E94">
-        <v>0.04959447994081903</v>
+        <v>0.06174235002707521</v>
       </c>
       <c r="F94">
-        <v>-0.009709499251451575</v>
+        <v>0.02284796387562734</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1506702125606212</v>
+        <v>-0.1286826776424621</v>
       </c>
       <c r="C95">
-        <v>-0.06100974329516901</v>
+        <v>0.007129427599910949</v>
       </c>
       <c r="D95">
-        <v>-0.01256152420990494</v>
+        <v>0.08224927841974189</v>
       </c>
       <c r="E95">
-        <v>-0.03949406070185205</v>
+        <v>0.03950903740383137</v>
       </c>
       <c r="F95">
-        <v>0.02713105429131838</v>
+        <v>-0.01131632889191076</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09492257193883534</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.98943361829511</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.009414164338521968</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06023328531286359</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05118984575432052</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.112369764383721</v>
+        <v>-0.1866455762606571</v>
       </c>
       <c r="C97">
-        <v>0.01652565105684453</v>
+        <v>-0.01326969157997672</v>
       </c>
       <c r="D97">
-        <v>-0.03168379237304759</v>
+        <v>-0.007835543317493237</v>
       </c>
       <c r="E97">
-        <v>-0.0817335290353265</v>
+        <v>0.01180222227660553</v>
       </c>
       <c r="F97">
-        <v>-0.6568719830219408</v>
+        <v>-0.1722916469971344</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2584375831732222</v>
+        <v>-0.2074256741667335</v>
       </c>
       <c r="C98">
-        <v>-0.1241393982952325</v>
+        <v>0.007773408487082944</v>
       </c>
       <c r="D98">
-        <v>-0.04794956502936391</v>
+        <v>0.01593029839692949</v>
       </c>
       <c r="E98">
-        <v>0.27651874451791</v>
+        <v>-0.08431707320003999</v>
       </c>
       <c r="F98">
-        <v>0.03183419002459398</v>
+        <v>-0.1435883079768357</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07745344322896734</v>
+        <v>-0.05866364958125988</v>
       </c>
       <c r="C99">
-        <v>-0.05778616465933006</v>
+        <v>-0.002830164534522827</v>
       </c>
       <c r="D99">
-        <v>-0.01535087500233956</v>
+        <v>0.029009745443407</v>
       </c>
       <c r="E99">
-        <v>0.04029791325012189</v>
+        <v>0.02264150114098876</v>
       </c>
       <c r="F99">
-        <v>0.02443934585643685</v>
+        <v>0.00477941189212803</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1227017801803729</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04632476626175659</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3275524651278903</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9058412502316958</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05713904933890013</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0428826055866726</v>
+        <v>-0.02774208212008695</v>
       </c>
       <c r="C101">
-        <v>-0.03148866892183472</v>
+        <v>0.00944916968757639</v>
       </c>
       <c r="D101">
-        <v>0.01615234616546787</v>
+        <v>0.02481685256936583</v>
       </c>
       <c r="E101">
-        <v>-0.05196570685673332</v>
+        <v>0.008053297332953596</v>
       </c>
       <c r="F101">
-        <v>-0.01069007510154298</v>
+        <v>-0.008547062717712424</v>
       </c>
     </row>
     <row r="102" spans="1:6">
